--- a/tables/crosstab/crosstab_app_safety/revealed, VS monitoring.xlsx
+++ b/tables/crosstab/crosstab_app_safety/revealed, VS monitoring.xlsx
@@ -435,22 +435,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E2">
-        <v>32.03</v>
+        <v>31.75</v>
       </c>
       <c r="F2">
         <v>11.25</v>
       </c>
       <c r="G2">
-        <v>43.28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,19 +461,19 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="F3">
-        <v>18.83</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>23.47</v>
+        <v>23.75</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -481,19 +481,19 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E4">
-        <v>7.58</v>
+        <v>7.25</v>
       </c>
       <c r="F4">
-        <v>25.67</v>
+        <v>26</v>
       </c>
       <c r="G4">
         <v>33.25</v>
@@ -504,19 +504,19 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C5">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D5">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E5">
-        <v>44.25</v>
+        <v>43.75</v>
       </c>
       <c r="F5">
-        <v>55.75</v>
+        <v>56.25</v>
       </c>
       <c r="G5">
         <v>100</v>
